--- a/level-3/leetcode-phase-3-3/leetcode-phase-3-3.xlsx
+++ b/level-3/leetcode-phase-3-3/leetcode-phase-3-3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6EA1C0-EB71-4713-A775-F29E729D2566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D65785-F247-48D6-8EBB-0F5B410D80E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="210">
   <si>
     <t>Problem Link</t>
   </si>
@@ -53,674 +53,605 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>Breadth First Search</t>
-  </si>
-  <si>
-    <t>Depth First Search</t>
-  </si>
-  <si>
     <t>Dynamic Programming</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/maximum-depth-of-n-ary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/employee-importance/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/cousins-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/symmetric-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/clone-n-ary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/clone-binary-tree-with-random-pointer/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/nested-list-weight-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-nearest-right-node-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-distance-in-a-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/n-ary-tree-level-order-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lexicographically-smallest-string-after-applying-operations/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/web-crawler/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-bottom-left-tree-value/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-largest-value-in-each-tree-row/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minesweeper/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/jump-game-iii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/tree-diameter/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-distinct-islands/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/walls-and-gates/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-level-order-traversal-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/the-maze/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/open-the-lock/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/shortest-bridge/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-islands/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/rotting-oranges/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/perfect-squares/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/the-maze-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/web-crawler-multithreaded/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-vertical-order-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-sideway-jumps/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/check-if-there-is-a-valid-path-in-a-grid/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/pacific-atlantic-water-flow/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/get-watched-videos-by-your-friends/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/01-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/snakes-and-ladders/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/cheapest-flights-within-k-stops/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-knight-moves/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-nodes-in-the-sub-tree-with-the-same-label/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/surrounded-regions/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-jumps-to-reach-home/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/jump-game-vii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/range-sum-of-bst/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-all-the-lonely-nodes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/increasing-order-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/leaf-similar-trees/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/flood-fill/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-paths/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-distance-between-bst-nodes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/same-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-tilt/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/path-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/deepest-leaves-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-of-nodes-with-even-valued-grandparent/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iv/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-leaves-of-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-good-nodes-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/distribute-coins-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-difference-between-node-and-ancestor/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/change-the-root-of-a-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/pseudo-palindromic-paths-in-a-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-word-with-all-prefixes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/delete-nodes-and-return-forest/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lexicographically-smallest-equivalent-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-area-of-island/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/nested-list-weight-sum-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-closed-islands/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/delete-tree-nodes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-provinces/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/convert-bst-to-greater-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lonely-pixel-i/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-enclaves/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-good-leaf-nodes-pairs/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/ternary-expression-parser/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/time-needed-to-inform-all-employees/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/pyramid-transition-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/most-stones-removed-with-same-row-or-column/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-time-to-collect-all-apples-in-a-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/shopping-offers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/decode-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/loud-and-rich/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/accounts-merge/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber-iii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-root-to-leaf-numbers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-coloring-game/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/path-sum-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/increasing-subsequences/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/smallest-string-starting-from-leaf/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sentence-similarity-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/coloring-a-border/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/target-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/recover-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-product-of-splitted-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/matchsticks-to-square/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/out-of-boundary-paths/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/counting-bits/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/divisor-game/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/min-cost-climbing-stairs/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/range-sum-query-immutable/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/climbing-stairs/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/matrix-block-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/partition-array-for-maximum-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/stone-game/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-corner-rectangles/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/stone-game-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-falling-path-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/palindromic-substrings/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-cost-for-tickets/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/airplane-seat-assignment-probability/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/where-will-the-ball-fall/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-subarray-sum-after-one-operation/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-submatrices-with-all-ones/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/arithmetic-slices/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-ascii-delete-sum-for-two-strings/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-common-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/filling-bookcase-shelves/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-path-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-paths/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-palindromic-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-string-chain/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-zigzag-path-in-a-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-binary-search-trees/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/paint-house/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-length-of-pair-chain/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-palindromic-subsequence-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/integer-break/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/largest-sum-of-averages/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/delete-and-earn/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-score-triangulation-of-polygon/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/2-keys-keyboard/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/knight-probability-in-chessboard/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/push-dominoes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/toss-strange-coins/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/greatest-sum-divisible-by-three/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/stone-game-vii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-arithmetic-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/predict-the-winner/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/video-stitching/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/largest-1-bordered-square/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/length-of-longest-fibonacci-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-dice-rolls-with-target-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/bomb-enemy/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/triangle/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/combination-sum-iv/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/knight-dialer/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/largest-plus-sign/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/last-stone-weight-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-line-of-consecutive-one-in-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-turbulent-subarray/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/partition-to-k-equal-sum-subsets/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-number-of-non-overlapping-subarrays-with-sum-equals-target/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/champagne-tower/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-binary-search-trees-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/ones-and-zeroes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/ugly-number-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/guess-number-higher-or-lower-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/word-break/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-sets-of-k-non-overlapping-line-segments/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/soup-servings/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/linked-list-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/domino-and-tromino-tiling/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximal-square/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/paint-fence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-subarray-sum-with-one-deletion/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-team-with-no-conflicts/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-longest-increasing-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-swaps-to-make-sequences-increasing/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/largest-divisible-subset/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/coin-change/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-substrings-in-wraparound-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-paths-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/new-21-game/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/bitwise-ors-of-subarrays/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sentence-screen-fitting/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/interleaving-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/can-i-win/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/decode-ways/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/continuous-subarray-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/k-concatenation-maximum-sum/</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reducing-dishes/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cherry-pickup-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-submatrices-that-sum-to-target/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/build-array-where-you-can-find-the-maximum-exactly-k-comparisons/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-falling-path-sum-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-distance-to-type-a-word-using-two-fingers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-paint-n-3-grid/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-ways-to-distribute-candies/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-v/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-chunked-palindrome-decomposition/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game-iv/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-one-bit-operations-to-make-integers-zero/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-all-possible-routes/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/triples-with-bitwise-and-equal-to-zero/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-difficulty-of-a-job-schedule/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-all-valid-pickup-and-delivery-options/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-columns-to-make-sorted-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/handshakes-that-dont-cross/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-of-cutting-a-pizza/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-vowels-permutation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/allocate-mailboxes/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-common-supersequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-cut-a-stick/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-reorder-array-to-get-same-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game-viii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/encode-string-with-shortest-length/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning-iv/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/paint-house-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-music-playlists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-number-of-achievable-transfer-requests/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/edit-distance/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-sufficient-team/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/dice-roll-simulation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pizza-with-3n-slices/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/paint-house-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-shortest-superstring/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-removal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-instructions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/least-operators-to-express-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/constrained-subsequence-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-students-taking-exam/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/form-largest-integer-with-digits-that-add-up-to-target/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-removals-to-make-mountain-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-different-palindromic-subsequences/</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>Binary Indexed Tree</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-sub-islands/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-to-connect-all-points/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-max-number-of-edges-to-keep-graph-fully-traversable/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-day-where-you-can-still-cross/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gcd-sort-of-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/graph-connectivity-with-threshold/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-component-size-by-common-factor/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/bricks-falling-when-hit/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-mutable/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-longest-valid-obstacle-course-at-each-position/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-of-smaller-numbers-after-self/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-2d-mutable/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-empty-slots/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/index-pairs-of-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-suggestions-system/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-ii-prefix-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/camelcase-matching/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/map-sum-pairs/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lexicographical-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/short-encoding-of-words/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/bold-words-in-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-bold-tag-in-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-duplicate-folders-in-system/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stream-of-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-search-autocomplete-system/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-in-memory-file-system/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/prefix-and-suffix-search/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-th-smallest-in-lexicographical-order/</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtract-the-product-and-sum-of-digits-of-an-integer/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-greatest-common-divisor-of-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/armstrong-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-69-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-substrings-with-only-one-distinct-letter/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/determine-color-of-a-chessboard-square/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/self-dividing-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-digits-in-base-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/di-string-match/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-range-i/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sign-of-the-product-of-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-square-sum-triples/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fizz-buzz/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/calculate-money-in-leetcode-bank/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distribute-candies-to-people/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/similar-rgb-color/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-digits/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/excel-sheet-column-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/roman-to-integer/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-odd-number-in-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-integer-to-the-sum-of-two-no-zero-integers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-days-in-a-month/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hexspeak/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/three-divisors/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/nim-game/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-addition-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-odd-numbers-in-an-interval-range/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-moves-to-equal-array-elements/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/prime-arrangements/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/greatest-common-divisor-of-strings/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-the-rectangle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number-in-arithmetic-progression/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/day-of-the-year/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-strings/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/base-7/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/confusing-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-days-between-two-dates/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-three/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/factorial-trailing-zeroes/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/perfect-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/excel-sheet-column-title/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-integer/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-operations-to-make-array-equal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/complex-number-multiplication/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/simplified-fractions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/the-kth-factor-of-n/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/guess-the-majority-in-a-hidden-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/angle-between-hands-of-a-clock/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reordered-power-of-2/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/random-pick-index/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-to-base-2/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/escape-the-ghosts/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/closest-divisors/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-roman/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/optimal-division/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotated-digits/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-number-of-nice-subarrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-moves-to-equal-array-elements-ii/</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-vowels-from-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/defanging-an-ip-address/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/goal-parser-interpretation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/to-lower-case/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/replace-all-digits-with-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/determine-if-string-halves-are-alike/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decrypt-string-from-alphabet-to-integer-mapping/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-a-string-with-characters-that-have-odd-counts/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/robot-return-to-origin/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-strings-alternately/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-word-equals-summation-of-two-words/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-palindromic-subsequences/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/goat-latin/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reformat-phone-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-a-word-occurs-as-a-prefix-of-any-word-in-a-sentence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-matching-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-digits-of-string-after-convert/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-binary-substrings/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flip-game/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/consecutive-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reformat-date/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-uncommon-subsequence-i/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-only-letters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-score-after-splitting-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-string-is-decomposable-into-value-equal-substrings/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/thousand-separator/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reformat-the-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-characters-to-make-fancy-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/detect-capital/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/replace-all-s-to-avoid-consecutive-repeating-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/student-attendance-record-i/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-vowels-of-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rearrange-spaces-between-words/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/repeated-substring-pattern/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/license-key-formatting/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-repeating-substring/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/read-n-characters-given-read4/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-segments-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/long-pressed-name/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-strstr/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/length-of-last-word/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-word-abbreviation/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +725,21 @@
     <font>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -879,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,12 +858,13 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,6 +891,12 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1418,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1438,54 +1391,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="7" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C165)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="7" t="e">
@@ -1509,20 +1462,20 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>COUNTA(I4:I841)</f>
+        <f>COUNTA(I4:I826)</f>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>COUNTA(J4:J961)</f>
-        <v>218</v>
+        <f>COUNTA(J4:J946)</f>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
+      <c r="A4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1534,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="12" t="s">
-        <v>15</v>
+      <c r="J4" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
+      <c r="A5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1554,16 +1507,16 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
+      <c r="J5" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
+      <c r="A6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1575,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
+      <c r="J6" s="25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
+      <c r="A7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1596,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="12" t="s">
-        <v>18</v>
+      <c r="J7" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
+      <c r="A8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1617,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="12" t="s">
-        <v>19</v>
+      <c r="J8" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
+      <c r="A9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1638,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="12" t="s">
-        <v>20</v>
+      <c r="J9" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
+      <c r="A10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1659,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="12" t="s">
-        <v>21</v>
+      <c r="J10" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
+      <c r="A11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1680,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="12" t="s">
-        <v>22</v>
+      <c r="J11" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
+      <c r="A12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1701,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="12" t="s">
-        <v>23</v>
+      <c r="J12" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
+      <c r="A13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1722,15 +1675,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="12" t="s">
-        <v>24</v>
+      <c r="J13" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="9"/>
@@ -1743,16 +1696,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="12" t="s">
-        <v>25</v>
+      <c r="J14" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>2</v>
+      <c r="A15" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1764,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="12" t="s">
-        <v>26</v>
+      <c r="J15" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
+      <c r="A16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1785,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="12" t="s">
-        <v>27</v>
+      <c r="J16" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
+      <c r="A17" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1806,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="12" t="s">
-        <v>28</v>
+      <c r="J17" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
+      <c r="A18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1827,15 +1780,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="12" t="s">
-        <v>29</v>
+      <c r="J18" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="9"/>
@@ -1848,15 +1801,15 @@
         <v>0</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="12" t="s">
-        <v>30</v>
+      <c r="J19" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="9"/>
@@ -1869,15 +1822,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="12" t="s">
-        <v>31</v>
+      <c r="J20" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="10"/>
@@ -1890,15 +1843,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="12" t="s">
-        <v>32</v>
+      <c r="J21" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="9"/>
@@ -1911,15 +1864,15 @@
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="12" t="s">
-        <v>33</v>
+      <c r="J22" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="9"/>
@@ -1932,15 +1885,15 @@
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="12" t="s">
-        <v>34</v>
+      <c r="J23" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="9"/>
@@ -1953,15 +1906,15 @@
         <v>0</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="12" t="s">
-        <v>35</v>
+      <c r="J24" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="9"/>
@@ -1974,15 +1927,15 @@
         <v>0</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="12" t="s">
-        <v>36</v>
+      <c r="J25" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="9"/>
@@ -1995,15 +1948,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="12" t="s">
-        <v>37</v>
+      <c r="J26" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="9"/>
@@ -2016,15 +1969,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="12" t="s">
-        <v>38</v>
+      <c r="J27" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="9"/>
@@ -2037,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="12" t="s">
-        <v>39</v>
+      <c r="J28" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
+      <c r="A29" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2058,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="12" t="s">
-        <v>40</v>
+      <c r="J29" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2</v>
+      <c r="A30" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2079,16 +2032,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="12" t="s">
-        <v>41</v>
+      <c r="J30" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>2</v>
+      <c r="A31" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2100,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="12" t="s">
-        <v>42</v>
+      <c r="J31" s="25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>2</v>
+      <c r="A32" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2121,16 +2074,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="12" t="s">
-        <v>43</v>
+      <c r="J32" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
+      <c r="A33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2142,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="12" t="s">
-        <v>44</v>
+      <c r="J33" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2</v>
+      <c r="A34" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2163,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="12" t="s">
-        <v>45</v>
+      <c r="J34" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>2</v>
+      <c r="A35" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -2184,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="12" t="s">
-        <v>46</v>
+      <c r="J35" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>2</v>
+      <c r="A36" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2205,16 +2158,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="12" t="s">
-        <v>47</v>
+      <c r="J36" s="25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2</v>
+      <c r="A37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -2226,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="12" t="s">
-        <v>48</v>
+      <c r="J37" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>2</v>
+      <c r="A38" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2247,16 +2200,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="12" t="s">
-        <v>49</v>
+      <c r="J38" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>2</v>
+      <c r="A39" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -2268,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="12" t="s">
-        <v>50</v>
+      <c r="J39" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>2</v>
+      <c r="A40" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2289,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="12" t="s">
-        <v>51</v>
+      <c r="J40" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>2</v>
+      <c r="A41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2310,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="12" t="s">
-        <v>52</v>
+      <c r="J41" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>2</v>
+      <c r="A42" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2331,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="12" t="s">
-        <v>53</v>
+      <c r="J42" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>2</v>
+      <c r="A43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -2352,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="12" t="s">
-        <v>54</v>
+      <c r="J43" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>2</v>
+      <c r="A44" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -2372,17 +2325,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>2</v>
+      <c r="J44" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -2393,17 +2345,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2</v>
+      <c r="I45" s="1"/>
+      <c r="J45" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -2414,17 +2366,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>2</v>
+      <c r="I46" s="1"/>
+      <c r="J46" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -2435,38 +2387,38 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>2</v>
+      <c r="I48" s="1"/>
+      <c r="J48" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -2477,101 +2429,101 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>2</v>
+      <c r="I53" s="1"/>
+      <c r="J53" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -2582,17 +2534,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>2</v>
+      <c r="I54" s="1"/>
+      <c r="J54" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -2603,16 +2555,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="I55" s="1"/>
+      <c r="J55" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="10"/>
@@ -2624,16 +2576,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="I56" s="1"/>
+      <c r="J56" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="10"/>
@@ -2645,16 +2597,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="I57" s="1"/>
+      <c r="J57" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="10"/>
@@ -2666,37 +2618,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="I59" s="1"/>
+      <c r="J59" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="10"/>
@@ -2708,100 +2660,100 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="I64" s="1"/>
+      <c r="J64" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="10"/>
@@ -2813,16 +2765,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="I65" s="1"/>
+      <c r="J65" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="10"/>
@@ -2834,37 +2786,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="I67" s="1"/>
+      <c r="J67" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="10"/>
@@ -2876,17 +2828,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>2</v>
+      <c r="I68" s="1"/>
+      <c r="J68" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2897,38 +2849,38 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>2</v>
+      <c r="I70" s="1"/>
+      <c r="J70" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2939,17 +2891,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>2</v>
+      <c r="I71" s="1"/>
+      <c r="J71" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2957,20 +2909,20 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="8">
-        <f t="shared" ref="H72:H106" si="2">SUM(C72:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>2</v>
+        <f t="shared" ref="H72:H135" si="2">SUM(C72:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2981,17 +2933,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>2</v>
+      <c r="I73" s="1"/>
+      <c r="J73" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -3002,16 +2954,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>2</v>
+      <c r="I74" s="1"/>
+      <c r="J74" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -3022,95 +2975,100 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I75" s="1"/>
       <c r="J75" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I79" s="1"/>
       <c r="J79" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="10"/>
@@ -3122,15 +3080,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I80" s="1"/>
       <c r="J80" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="10"/>
@@ -3142,35 +3101,37 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I81" s="1"/>
       <c r="J81" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I82" s="1"/>
       <c r="J82" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="10"/>
@@ -3182,15 +3143,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I83" s="1"/>
       <c r="J83" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="10"/>
@@ -3202,15 +3164,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I84" s="1"/>
       <c r="J84" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="10"/>
@@ -3222,15 +3185,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I85" s="1"/>
       <c r="J85" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="10"/>
@@ -3242,15 +3206,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I86" s="1"/>
       <c r="J86" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="10"/>
@@ -3262,15 +3227,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I87" s="1"/>
       <c r="J87" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="10"/>
@@ -3282,15 +3248,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I88" s="1"/>
       <c r="J88" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="10"/>
@@ -3302,15 +3269,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I89" s="1"/>
       <c r="J89" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="10"/>
@@ -3322,15 +3290,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I90" s="1"/>
       <c r="J90" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="10"/>
@@ -3342,15 +3311,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I91" s="1"/>
       <c r="J91" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="10"/>
@@ -3362,35 +3332,37 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I92" s="1"/>
       <c r="J92" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I93" s="1"/>
       <c r="J93" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="10"/>
@@ -3402,16 +3374,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I94" s="1"/>
       <c r="J94" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>2</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -3422,16 +3395,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I95" s="1"/>
       <c r="J95" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>2</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -3442,16 +3416,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I96" s="1"/>
       <c r="J96" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>2</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -3462,16 +3437,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I97" s="1"/>
       <c r="J97" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>2</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -3482,16 +3458,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I98" s="1"/>
       <c r="J98" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>2</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -3502,16 +3479,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I99" s="1"/>
       <c r="J99" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>2</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -3522,16 +3500,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I100" s="1"/>
       <c r="J100" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>2</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -3542,16 +3521,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I101" s="1"/>
       <c r="J101" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>2</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -3562,16 +3542,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I102" s="1"/>
       <c r="J102" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>2</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -3582,16 +3563,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I103" s="1"/>
       <c r="J103" s="13" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>2</v>
+      <c r="A104" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -3603,15 +3585,15 @@
         <v>0</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>2</v>
+      <c r="A105" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -3623,15 +3605,15 @@
         <v>0</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>2</v>
+      <c r="A106" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -3643,15 +3625,15 @@
         <v>0</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>2</v>
+      <c r="A107" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -3659,19 +3641,19 @@
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="8">
-        <f t="shared" ref="H107" si="3">SUM(C107:G107)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>2</v>
+      <c r="A108" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -3679,19 +3661,19 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="8">
-        <f t="shared" ref="H108" si="4">SUM(C108:G108)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>2</v>
+      <c r="A109" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -3699,19 +3681,19 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="8">
-        <f t="shared" ref="H109" si="5">SUM(C109:G109)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>2</v>
+      <c r="A110" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -3719,19 +3701,19 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="8">
-        <f t="shared" ref="H110" si="6">SUM(C110:G110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>2</v>
+      <c r="A111" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -3739,19 +3721,19 @@
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="8">
-        <f t="shared" ref="H111" si="7">SUM(C111:G111)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>2</v>
+      <c r="A112" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -3759,19 +3741,19 @@
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="8">
-        <f t="shared" ref="H112" si="8">SUM(C112:G112)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>2</v>
+      <c r="A113" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -3779,19 +3761,19 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="8">
-        <f t="shared" ref="H113" si="9">SUM(C113:G113)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>2</v>
+      <c r="A114" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -3799,19 +3781,19 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="8">
-        <f t="shared" ref="H114" si="10">SUM(C114:G114)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>2</v>
+      <c r="A115" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -3819,19 +3801,19 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="8">
-        <f t="shared" ref="H115" si="11">SUM(C115:G115)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="13" t="s">
-        <v>126</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>2</v>
+      <c r="A116" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -3839,19 +3821,19 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="8">
-        <f t="shared" ref="H116" si="12">SUM(C116:G116)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="13" t="s">
-        <v>127</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>2</v>
+      <c r="A117" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -3859,19 +3841,19 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="8">
-        <f t="shared" ref="H117" si="13">SUM(C117:G117)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="13" t="s">
-        <v>128</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="25" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>2</v>
+      <c r="A118" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -3879,19 +3861,19 @@
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="8">
-        <f t="shared" ref="H118" si="14">SUM(C118:G118)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="13" t="s">
-        <v>129</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>2</v>
+      <c r="A119" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -3899,19 +3881,19 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="8">
-        <f t="shared" ref="H119" si="15">SUM(C119:G119)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="13" t="s">
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>2</v>
+      <c r="A120" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -3919,19 +3901,19 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="8">
-        <f t="shared" ref="H120" si="16">SUM(C120:G120)</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="13" t="s">
-        <v>131</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>2</v>
+      <c r="A121" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -3939,19 +3921,19 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="8">
-        <f t="shared" ref="H121" si="17">SUM(C121:G121)</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="13" t="s">
-        <v>132</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>2</v>
+      <c r="A122" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -3959,19 +3941,19 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122" s="8">
-        <f t="shared" ref="H122" si="18">SUM(C122:G122)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="13" t="s">
-        <v>133</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>2</v>
+      <c r="A123" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -3979,18 +3961,18 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="8">
-        <f t="shared" ref="H123" si="19">SUM(C123:G123)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="13" t="s">
-        <v>134</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="10"/>
@@ -3999,18 +3981,18 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="8">
-        <f t="shared" ref="H124" si="20">SUM(C124:G124)</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="13" t="s">
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="5" t="s">
+      <c r="A125" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C125" s="10"/>
@@ -4019,18 +4001,18 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="8">
-        <f t="shared" ref="H125" si="21">SUM(C125:G125)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="13" t="s">
-        <v>136</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="5" t="s">
+      <c r="A126" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C126" s="10"/>
@@ -4039,18 +4021,18 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="8">
-        <f t="shared" ref="H126" si="22">SUM(C126:G126)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="13" t="s">
-        <v>137</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="25" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="5" t="s">
+      <c r="A127" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="10"/>
@@ -4059,18 +4041,18 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="8">
-        <f t="shared" ref="H127" si="23">SUM(C127:G127)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="13" t="s">
-        <v>138</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="5" t="s">
+      <c r="A128" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="10"/>
@@ -4079,18 +4061,18 @@
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="8">
-        <f t="shared" ref="H128" si="24">SUM(C128:G128)</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="13" t="s">
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="A129" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="10"/>
@@ -4099,19 +4081,19 @@
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="8">
-        <f t="shared" ref="H129" si="25">SUM(C129:G129)</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="13" t="s">
-        <v>140</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>2</v>
+      <c r="A130" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -4119,19 +4101,19 @@
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="8">
-        <f t="shared" ref="H130" si="26">SUM(C130:G130)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="13" t="s">
-        <v>141</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>2</v>
+      <c r="A131" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -4139,19 +4121,19 @@
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="8">
-        <f t="shared" ref="H131" si="27">SUM(C131:G131)</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="13" t="s">
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>2</v>
+      <c r="A132" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -4159,19 +4141,19 @@
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="8">
-        <f t="shared" ref="H132" si="28">SUM(C132:G132)</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="13" t="s">
-        <v>143</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>2</v>
+      <c r="A133" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -4179,19 +4161,19 @@
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="8">
-        <f t="shared" ref="H133" si="29">SUM(C133:G133)</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="13" t="s">
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="25" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>2</v>
+      <c r="A134" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -4199,19 +4181,19 @@
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="8">
-        <f t="shared" ref="H134" si="30">SUM(C134:G134)</f>
-        <v>0</v>
-      </c>
-      <c r="J134" s="13" t="s">
-        <v>145</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>2</v>
+      <c r="A135" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -4219,19 +4201,19 @@
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="8">
-        <f t="shared" ref="H135" si="31">SUM(C135:G135)</f>
-        <v>0</v>
-      </c>
-      <c r="J135" s="13" t="s">
-        <v>146</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="25" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>2</v>
+      <c r="A136" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -4239,19 +4221,19 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="8">
-        <f t="shared" ref="H136" si="32">SUM(C136:G136)</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="13" t="s">
-        <v>147</v>
+        <f t="shared" ref="H136:H155" si="3">SUM(C136:G136)</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>2</v>
+      <c r="A137" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -4259,19 +4241,19 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="8">
-        <f t="shared" ref="H137" si="33">SUM(C137:G137)</f>
-        <v>0</v>
-      </c>
-      <c r="J137" s="13" t="s">
-        <v>148</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="25" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>2</v>
+      <c r="A138" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
@@ -4279,19 +4261,19 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="8">
-        <f t="shared" ref="H138" si="34">SUM(C138:G138)</f>
-        <v>0</v>
-      </c>
-      <c r="J138" s="13" t="s">
-        <v>149</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="25" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>2</v>
+      <c r="A139" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
@@ -4299,19 +4281,19 @@
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139" s="8">
-        <f t="shared" ref="H139" si="35">SUM(C139:G139)</f>
-        <v>0</v>
-      </c>
-      <c r="J139" s="13" t="s">
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="25" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>2</v>
+      <c r="A140" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
@@ -4319,19 +4301,19 @@
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="8">
-        <f t="shared" ref="H140" si="36">SUM(C140:G140)</f>
-        <v>0</v>
-      </c>
-      <c r="J140" s="13" t="s">
-        <v>151</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="25" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>2</v>
+      <c r="A141" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
@@ -4339,19 +4321,19 @@
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="8">
-        <f t="shared" ref="H141" si="37">SUM(C141:G141)</f>
-        <v>0</v>
-      </c>
-      <c r="J141" s="13" t="s">
-        <v>152</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="25" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>2</v>
+      <c r="A142" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -4359,19 +4341,19 @@
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="8">
-        <f t="shared" ref="H142" si="38">SUM(C142:G142)</f>
-        <v>0</v>
-      </c>
-      <c r="J142" s="13" t="s">
-        <v>153</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>2</v>
+      <c r="A143" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
@@ -4379,19 +4361,19 @@
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="8">
-        <f t="shared" ref="H143" si="39">SUM(C143:G143)</f>
-        <v>0</v>
-      </c>
-      <c r="J143" s="13" t="s">
-        <v>154</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="25" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>2</v>
+      <c r="A144" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -4399,19 +4381,19 @@
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="8">
-        <f t="shared" ref="H144" si="40">SUM(C144:G144)</f>
-        <v>0</v>
-      </c>
-      <c r="J144" s="13" t="s">
-        <v>155</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>2</v>
+      <c r="A145" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -4419,19 +4401,19 @@
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="8">
-        <f t="shared" ref="H145" si="41">SUM(C145:G145)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J145" s="13" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>2</v>
+      <c r="A146" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -4439,19 +4421,19 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="8">
-        <f t="shared" ref="H146" si="42">SUM(C146:G146)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>2</v>
+      <c r="A147" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
@@ -4459,19 +4441,19 @@
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="8">
-        <f t="shared" ref="H147" si="43">SUM(C147:G147)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>2</v>
+      <c r="A148" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -4479,19 +4461,19 @@
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148" s="8">
-        <f t="shared" ref="H148:H213" si="44">SUM(C148:G148)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J148" s="13" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>2</v>
+      <c r="A149" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
@@ -4499,19 +4481,19 @@
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J149" s="13" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>2</v>
+      <c r="A150" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -4519,19 +4501,19 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
       <c r="H150" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J150" s="13" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>2</v>
+      <c r="A151" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
@@ -4539,19 +4521,19 @@
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J151" s="13" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>2</v>
+      <c r="A152" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -4559,19 +4541,19 @@
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J152" s="13" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>2</v>
+      <c r="A153" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -4579,19 +4561,19 @@
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J153" s="13" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>2</v>
+      <c r="A154" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -4599,19 +4581,19 @@
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J154" s="13" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>2</v>
+      <c r="A155" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
@@ -4619,19 +4601,19 @@
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J155" s="13" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>2</v>
+      <c r="A156" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
@@ -4639,19 +4621,19 @@
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="H156:H202" si="4">SUM(C156:G156)</f>
         <v>0</v>
       </c>
       <c r="J156" s="13" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>2</v>
+      <c r="A157" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
@@ -4659,19 +4641,19 @@
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J157" s="13" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>2</v>
+      <c r="A158" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
@@ -4679,19 +4661,19 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J158" s="13" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>2</v>
+      <c r="A159" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -4699,19 +4681,19 @@
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
       <c r="H159" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J159" s="13" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>2</v>
+      <c r="A160" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -4719,19 +4701,19 @@
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J160" s="13" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>2</v>
+      <c r="A161" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -4739,19 +4721,19 @@
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J161" s="13" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>2</v>
+      <c r="A162" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -4759,19 +4741,19 @@
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J162" s="13" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>2</v>
+      <c r="A163" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -4779,19 +4761,19 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J163" s="13" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>2</v>
+      <c r="A164" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -4799,19 +4781,19 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J164" s="13" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>2</v>
+      <c r="A165" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -4819,19 +4801,19 @@
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J165" s="13" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>2</v>
+      <c r="A166" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -4839,19 +4821,19 @@
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J166" s="13" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>2</v>
+      <c r="A167" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -4859,19 +4841,19 @@
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J167" s="13" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>2</v>
+      <c r="A168" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -4879,19 +4861,19 @@
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J168" s="13" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>2</v>
+      <c r="A169" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -4899,19 +4881,19 @@
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
       <c r="H169" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J169" s="13" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>2</v>
+      <c r="A170" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -4919,19 +4901,19 @@
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J170" s="13" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>2</v>
+      <c r="A171" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -4939,19 +4921,19 @@
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
       <c r="H171" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J171" s="13" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>2</v>
+      <c r="A172" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -4959,19 +4941,19 @@
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J172" s="13" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>2</v>
+      <c r="A173" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -4979,19 +4961,19 @@
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J173" s="13" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>2</v>
+      <c r="A174" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -4999,19 +4981,19 @@
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J174" s="13" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>2</v>
+      <c r="A175" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
@@ -5019,19 +5001,19 @@
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J175" s="13" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>2</v>
+      <c r="A176" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -5039,19 +5021,19 @@
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J176" s="13" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>2</v>
+      <c r="A177" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
@@ -5059,19 +5041,19 @@
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>2</v>
+      <c r="A178" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
@@ -5079,19 +5061,19 @@
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
       <c r="H178" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>2</v>
+      <c r="A179" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
@@ -5099,19 +5081,19 @@
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J179" s="13" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>2</v>
+      <c r="A180" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
@@ -5119,19 +5101,19 @@
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
       <c r="H180" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J180" s="13" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>2</v>
+      <c r="A181" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
@@ -5139,19 +5121,19 @@
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
       <c r="H181" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J181" s="13" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>2</v>
+      <c r="A182" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
@@ -5159,19 +5141,19 @@
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
       <c r="H182" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J182" s="13" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>2</v>
+      <c r="A183" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -5179,19 +5161,19 @@
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
       <c r="H183" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J183" s="13" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>2</v>
+      <c r="A184" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -5199,19 +5181,19 @@
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
       <c r="H184" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J184" s="13" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>2</v>
+      <c r="A185" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -5219,19 +5201,19 @@
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
       <c r="H185" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J185" s="13" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>2</v>
+      <c r="A186" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -5239,19 +5221,19 @@
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
       <c r="H186" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J186" s="13" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>2</v>
+      <c r="A187" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
@@ -5259,19 +5241,19 @@
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
       <c r="H187" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J187" s="13" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>2</v>
+      <c r="A188" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -5279,19 +5261,19 @@
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
       <c r="H188" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J188" s="13" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>2</v>
+      <c r="A189" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -5299,19 +5281,19 @@
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
       <c r="H189" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J189" s="13" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>2</v>
+      <c r="A190" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -5319,19 +5301,19 @@
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
       <c r="H190" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J190" s="13" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>2</v>
+      <c r="A191" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -5339,19 +5321,19 @@
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
       <c r="H191" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J191" s="13" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>2</v>
+      <c r="A192" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -5359,19 +5341,19 @@
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
       <c r="H192" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J192" s="13" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>2</v>
+      <c r="A193" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -5379,19 +5361,19 @@
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
       <c r="H193" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J193" s="13" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>2</v>
+      <c r="A194" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
@@ -5399,19 +5381,19 @@
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
       <c r="H194" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J194" s="13" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>2</v>
+      <c r="A195" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
@@ -5419,549 +5401,152 @@
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
       <c r="H195" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J195" s="13" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J196" s="13" t="s">
-        <v>207</v>
-      </c>
+      <c r="H196" s="8"/>
+      <c r="J196" s="12"/>
     </row>
     <row r="197" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
-      <c r="H197" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J197" s="13" t="s">
-        <v>208</v>
-      </c>
+      <c r="H197" s="8"/>
+      <c r="J197" s="12"/>
     </row>
     <row r="198" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
-      <c r="H198" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J198" s="13" t="s">
-        <v>209</v>
-      </c>
+      <c r="H198" s="8"/>
+      <c r="J198" s="12"/>
     </row>
     <row r="199" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
-      <c r="H199" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J199" s="13" t="s">
-        <v>210</v>
-      </c>
+      <c r="H199" s="8"/>
+      <c r="J199" s="12"/>
     </row>
     <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
-      <c r="H200" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J200" s="13" t="s">
-        <v>211</v>
-      </c>
+      <c r="H200" s="8"/>
+      <c r="J200" s="12"/>
     </row>
     <row r="201" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
-      <c r="H201" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J201" s="13" t="s">
-        <v>212</v>
-      </c>
+      <c r="H201" s="8"/>
+      <c r="J201" s="12"/>
     </row>
     <row r="202" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
       <c r="G202" s="10"/>
-      <c r="H202" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J202" s="13" t="s">
-        <v>213</v>
-      </c>
+      <c r="H202" s="8"/>
+      <c r="J202" s="12"/>
     </row>
     <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
-      <c r="H203" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J203" s="13" t="s">
-        <v>214</v>
-      </c>
+      <c r="H203" s="8"/>
+      <c r="J203" s="12"/>
     </row>
     <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
-      <c r="H204" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J204" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="H204" s="8"/>
+      <c r="J204" s="12"/>
     </row>
     <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
-      <c r="H205" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J205" s="13" t="s">
-        <v>216</v>
-      </c>
+      <c r="H205" s="8"/>
+      <c r="J205" s="12"/>
     </row>
     <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
-      <c r="H206" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J206" s="13" t="s">
-        <v>217</v>
-      </c>
+      <c r="H206" s="8"/>
+      <c r="J206" s="12"/>
     </row>
     <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J207" s="13" t="s">
-        <v>218</v>
-      </c>
+      <c r="H207" s="8"/>
+      <c r="J207" s="12"/>
     </row>
     <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J208" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J209" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J210" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J211" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="8">
-        <f t="shared" ref="H212" si="45">SUM(C212:G212)</f>
-        <v>0</v>
-      </c>
-      <c r="J212" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J213" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="8">
-        <f t="shared" ref="H214:H221" si="46">SUM(C214:G214)</f>
-        <v>0</v>
-      </c>
-      <c r="J214" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J215" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J216" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J217" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J218" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J219" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J220" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="8">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J221" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H222" s="8"/>
-      <c r="J222" s="13"/>
-    </row>
-    <row r="223" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H223" s="8"/>
-      <c r="J223" s="13"/>
-    </row>
-    <row r="224" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H224" s="8"/>
-    </row>
-    <row r="225" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H225" s="8"/>
-    </row>
-    <row r="226" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H226" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="J208" s="12"/>
+    </row>
+    <row r="209" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H209" s="8"/>
+      <c r="J209" s="12"/>
+    </row>
+    <row r="210" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H210" s="8"/>
+      <c r="J210" s="12"/>
+    </row>
+    <row r="211" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H211" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5976,119 +5561,286 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+  <conditionalFormatting sqref="J1 A1 I24:I26">
+    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+  <conditionalFormatting sqref="I20:I23">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J66 J68:J71">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+  <conditionalFormatting sqref="J64:J72">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
+  <conditionalFormatting sqref="J74">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="J74">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="J118:J120">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
+  <conditionalFormatting sqref="J115">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J152" r:id="rId1" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{E156D9EF-CC88-4773-B834-3696B6256CB9}"/>
-    <hyperlink ref="J153" r:id="rId2" display="https://leetcode.com/problems/design-a-stack-with-increment-operation/" xr:uid="{FD21A1DA-29DA-495F-A5D7-C1064A48F08B}"/>
-    <hyperlink ref="J154" r:id="rId3" display="https://leetcode.com/problems/minimum-add-to-make-parentheses-valid/" xr:uid="{9F19E74B-47DD-4AA3-9DB6-27A59E528E67}"/>
-    <hyperlink ref="J155" r:id="rId4" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/" xr:uid="{5D1F5EA9-1108-4B4E-95B3-19F49B9F2549}"/>
-    <hyperlink ref="J156" r:id="rId5" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{381CB745-3BA9-4779-8654-2BFED9DFFC0A}"/>
-    <hyperlink ref="J157" r:id="rId6" display="https://leetcode.com/problems/score-of-parentheses/" xr:uid="{D4AE5FC6-09DA-42B6-8721-F9C5B8CAEC8A}"/>
-    <hyperlink ref="J158" r:id="rId7" display="https://leetcode.com/problems/validate-stack-sequences/" xr:uid="{AC9025BA-64F1-495B-94AA-DFF19E87BC2F}"/>
-    <hyperlink ref="J159" r:id="rId8" display="https://leetcode.com/problems/reverse-substrings-between-each-pair-of-parentheses/" xr:uid="{4BF2B810-74AD-411B-93C6-CEB308F9DC1C}"/>
-    <hyperlink ref="J160" r:id="rId9" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/" xr:uid="{893C5263-5D51-4D79-AAAD-5649D2180F6C}"/>
-    <hyperlink ref="J161" r:id="rId10" display="https://leetcode.com/problems/online-stock-span/" xr:uid="{16D58146-1701-4C1A-B405-03E48257D927}"/>
-    <hyperlink ref="J162" r:id="rId11" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{6D536E38-58DD-4022-87F7-35F22A95B854}"/>
-    <hyperlink ref="J163" r:id="rId12" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/" xr:uid="{8D140D89-E687-4667-B95F-8754B36FD06F}"/>
-    <hyperlink ref="J164" r:id="rId13" display="https://leetcode.com/problems/ternary-expression-parser/" xr:uid="{F24116DD-A25E-40FF-B6DB-1162F30D5B9A}"/>
-    <hyperlink ref="J165" r:id="rId14" display="https://leetcode.com/problems/check-if-word-is-valid-after-substitutions/" xr:uid="{28E1431D-BC55-44BA-B398-9C674E9467C2}"/>
-    <hyperlink ref="J166" r:id="rId15" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{34F1DAE6-2CA0-4285-A326-D9F5378EFE5F}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{4E6138CA-9DAE-4763-B318-85A54726C95B}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{2A95F27A-B7B1-4718-91EF-132E43FF9149}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{815C7F82-DF2C-49AE-A995-644A594DCA0A}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{FBCAFE50-6610-4FD4-9CB2-BA1D5D3A9BAA}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{01CC71A8-FE54-408C-818A-DC85BAFA1643}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{A2C4DDE0-7182-4E1A-AB4B-7B92CDF1EABA}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{236927FA-17E3-4D8A-87CF-E802F8D77CA4}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{1E4C7A61-9DB5-44ED-AE49-6ED462B339A4}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{D96F4F9D-082F-4B32-9D9D-E3E5CA5FF8F8}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{A02BF4F3-755F-4ABC-96E9-DD2E521EFD87}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{B1A9A90E-AC3B-4B52-8398-51FCE28D58CC}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{2AC184E8-79DE-4C83-BFF0-3186FA2B5C5B}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{E32CF18F-85E1-4A4D-8A54-554257C226BB}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{B48ABAAF-5E2E-44CA-9F0A-C7B84B062908}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{654AF550-47EC-45B9-89A7-243B22920D3C}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{C97F5281-D580-4167-9EB7-16B9A1860A14}"/>
+    <hyperlink ref="J20" r:id="rId17" xr:uid="{85213AE8-8DD2-40E5-962B-A8748341B8AC}"/>
+    <hyperlink ref="J21" r:id="rId18" xr:uid="{57C6C6A0-D4F3-46AA-9AEE-238B111324B9}"/>
+    <hyperlink ref="J22" r:id="rId19" xr:uid="{F3E0CDF1-E099-4366-ADF2-59E6A50149BB}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{2533B635-37FE-4EED-B9D9-F011D7DDB77C}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{CB56006D-5369-4ED9-BE19-D976D78FA33F}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{E7106D96-66FA-493E-B5E2-BC71B73B988A}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{523EEA52-E4EA-492C-8856-ADE05459680D}"/>
+    <hyperlink ref="J27" r:id="rId24" xr:uid="{8343B1DF-F843-4D51-A63A-C8F7733B9A77}"/>
+    <hyperlink ref="J28" r:id="rId25" xr:uid="{9994C804-E909-48AF-BE85-5E7CC01688AD}"/>
+    <hyperlink ref="J29" r:id="rId26" xr:uid="{83FED29E-E830-432C-8DA9-D72133FD1249}"/>
+    <hyperlink ref="J30" r:id="rId27" xr:uid="{F46E5934-6A28-4579-B9D6-4967A72F1DBE}"/>
+    <hyperlink ref="J31" r:id="rId28" xr:uid="{9B278F7E-0787-412D-9166-013D9124B9F9}"/>
+    <hyperlink ref="J32" r:id="rId29" xr:uid="{790F417F-5FE8-48B2-80E7-1440E76BDEDA}"/>
+    <hyperlink ref="J33" r:id="rId30" xr:uid="{D572F2C8-769B-4BE3-821E-4A856EED67A6}"/>
+    <hyperlink ref="J34" r:id="rId31" xr:uid="{87D6DA6B-AC22-4D61-83D6-BAF59903F98B}"/>
+    <hyperlink ref="J35" r:id="rId32" xr:uid="{430FF154-D260-4F05-9C1D-6AED8E5BE679}"/>
+    <hyperlink ref="J36" r:id="rId33" xr:uid="{614A43BC-9445-42F0-B02C-37C276290DBB}"/>
+    <hyperlink ref="J37" r:id="rId34" xr:uid="{6876BE5B-DE65-4308-9AC6-F9DD0387EEE5}"/>
+    <hyperlink ref="J38" r:id="rId35" xr:uid="{854EE7D3-F784-4004-8419-CD6A28866331}"/>
+    <hyperlink ref="J39" r:id="rId36" xr:uid="{38E8E6A3-B13C-46B9-9D4A-0F8FAE52A264}"/>
+    <hyperlink ref="J40" r:id="rId37" xr:uid="{9D07B1B3-CC08-45B3-81DA-B043C5C95556}"/>
+    <hyperlink ref="J41" r:id="rId38" xr:uid="{16C6CCA3-8DD6-48E9-9C0A-8DAC423A1B6E}"/>
+    <hyperlink ref="J42" r:id="rId39" xr:uid="{47F6CB4C-919A-42C1-A1DC-53F0CA720D60}"/>
+    <hyperlink ref="J43" r:id="rId40" xr:uid="{83E203E6-4908-4E96-9D1E-001D89BF6D26}"/>
+    <hyperlink ref="J44" r:id="rId41" xr:uid="{B3768BC5-08C6-4B95-B1EB-208217D49A4A}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{02B5F224-A777-455D-960B-4976D3E8EF32}"/>
+    <hyperlink ref="J46" r:id="rId43" xr:uid="{78FE2C52-53DC-4112-8B12-7CB402B1325D}"/>
+    <hyperlink ref="J47" r:id="rId44" xr:uid="{C6DF4B00-8DC3-4FB5-93AE-D056562B1DE6}"/>
+    <hyperlink ref="J48" r:id="rId45" xr:uid="{14B55950-494C-49BE-B1D9-E9F91C9E415B}"/>
+    <hyperlink ref="J49" r:id="rId46" xr:uid="{A3644136-CEDB-4EBA-9D30-E1710DBE6F1F}"/>
+    <hyperlink ref="J50" r:id="rId47" xr:uid="{748A525F-5743-47FD-AB4E-A6B930D2EABA}"/>
+    <hyperlink ref="J51" r:id="rId48" xr:uid="{604F64F5-9D4B-43D7-A656-27945F7FB37E}"/>
+    <hyperlink ref="J52" r:id="rId49" xr:uid="{F8630861-DAD8-4D55-A565-C2AFF1C35BF1}"/>
+    <hyperlink ref="J53" r:id="rId50" xr:uid="{0BB2B7DE-99CA-46E2-BBE9-5631790DD8DD}"/>
+    <hyperlink ref="J54" r:id="rId51" xr:uid="{774C9093-0B1C-456C-897F-8BAD3BEEBD57}"/>
+    <hyperlink ref="J55" r:id="rId52" xr:uid="{BA7AE214-A136-4B35-8BA0-036B3A50E59F}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{3F78F933-B553-43AD-8BC4-72FC3AA0AF7A}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{BBED5060-56D6-4347-A46E-468776F8AA64}"/>
+    <hyperlink ref="J58" r:id="rId55" xr:uid="{71496D80-6CB6-4497-973D-1CEE6979A706}"/>
+    <hyperlink ref="J59" r:id="rId56" xr:uid="{2F84785B-FDC8-41FB-8927-D70FE961FAEF}"/>
+    <hyperlink ref="J60" r:id="rId57" xr:uid="{7FF1432B-8D98-4455-B016-E734C3EEAABF}"/>
+    <hyperlink ref="J61" r:id="rId58" xr:uid="{08BB009C-D666-465C-8BE3-2DF4A7F751C5}"/>
+    <hyperlink ref="J62" r:id="rId59" xr:uid="{EF7BB089-4873-42B7-BA23-698CE4A22658}"/>
+    <hyperlink ref="J63" r:id="rId60" xr:uid="{87E8FCE2-9610-4DC1-B504-B323EFAD4C8B}"/>
+    <hyperlink ref="J64" r:id="rId61" xr:uid="{AF178AD2-6925-432C-91ED-1FE0880A4404}"/>
+    <hyperlink ref="J65" r:id="rId62" xr:uid="{E0125B1C-6442-4EA1-AC0B-58F87C9578F9}"/>
+    <hyperlink ref="J66" r:id="rId63" xr:uid="{7E4CB507-99FE-4916-8D1E-B4295A25C1F0}"/>
+    <hyperlink ref="J67" r:id="rId64" xr:uid="{1EC77CED-BF7A-4DE4-90C1-3E1AA67EEB07}"/>
+    <hyperlink ref="J68" r:id="rId65" xr:uid="{2E65F9A4-E43D-4CDA-A96A-38EB2FC459BD}"/>
+    <hyperlink ref="J69" r:id="rId66" xr:uid="{E185D42F-36E0-40A9-975A-F66F0B19C680}"/>
+    <hyperlink ref="J70" r:id="rId67" xr:uid="{337A9F91-1ADB-48CC-B3B7-0B26D9758DCE}"/>
+    <hyperlink ref="J71" r:id="rId68" xr:uid="{115290BB-C411-4640-9605-B35AA1AF2002}"/>
+    <hyperlink ref="J72" r:id="rId69" xr:uid="{E182F506-B2B4-4BF1-8BF5-28B4554960D4}"/>
+    <hyperlink ref="J73" r:id="rId70" xr:uid="{8ADC0E74-41B9-4895-919C-E160B4CC26A8}"/>
+    <hyperlink ref="J74" r:id="rId71" xr:uid="{02FEAB3E-FA03-4B09-BF32-7A7F800B8CAD}"/>
+    <hyperlink ref="J75" r:id="rId72" xr:uid="{02E5A8D8-6F67-433F-8277-D3BEF62B440E}"/>
+    <hyperlink ref="J76" r:id="rId73" xr:uid="{50C5DE4D-0610-44F2-A419-DCAAA83AFFBD}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{434AA371-513C-4B55-8AF8-EB453FB4E61B}"/>
+    <hyperlink ref="J78" r:id="rId75" xr:uid="{7CA82163-6D1A-434E-A8B3-B992AA1B3D9A}"/>
+    <hyperlink ref="J79" r:id="rId76" xr:uid="{52770B20-7474-4CB2-A6A2-20ED2FCD3282}"/>
+    <hyperlink ref="J80" r:id="rId77" xr:uid="{31D95683-5A6A-460A-AAD0-3518D5BB9F26}"/>
+    <hyperlink ref="J81" r:id="rId78" xr:uid="{C53082FD-0A84-44E4-BE86-CE01D4980EAF}"/>
+    <hyperlink ref="J82" r:id="rId79" xr:uid="{50A4BEAB-23B4-42F1-A3B6-B502B1540595}"/>
+    <hyperlink ref="J83" r:id="rId80" xr:uid="{482C6C30-965B-403F-9634-D8C597E92A71}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{4A785C02-76AC-4D6F-AD07-8C61BB852D09}"/>
+    <hyperlink ref="J85" r:id="rId82" xr:uid="{6846B915-F4FC-4084-AF9D-3C474F83CE2C}"/>
+    <hyperlink ref="J86" r:id="rId83" xr:uid="{6587C003-8CA0-480C-A762-1421439236D0}"/>
+    <hyperlink ref="J87" r:id="rId84" xr:uid="{736105AF-AEAC-4392-B871-2F2037351B61}"/>
+    <hyperlink ref="J88" r:id="rId85" xr:uid="{45CBC4AF-66D4-410F-9BC5-64081772B2F7}"/>
+    <hyperlink ref="J89" r:id="rId86" xr:uid="{CCC4FCBB-DB5E-48E8-AF04-E15ED5D4B2FA}"/>
+    <hyperlink ref="J90" r:id="rId87" xr:uid="{F91CF194-6157-456F-A0A9-833B7CD35006}"/>
+    <hyperlink ref="J91" r:id="rId88" xr:uid="{5E2BA526-D451-4C2A-AEFF-3580DBC6219E}"/>
+    <hyperlink ref="J92" r:id="rId89" xr:uid="{78846B4B-B682-4A60-BB0A-B84CB70A2A91}"/>
+    <hyperlink ref="J93" r:id="rId90" xr:uid="{3802C0EF-E196-466D-8D21-81D63DBD890F}"/>
+    <hyperlink ref="J94" r:id="rId91" xr:uid="{A414FCFA-BF38-480F-8904-BA11E0F40D6D}"/>
+    <hyperlink ref="J95" r:id="rId92" xr:uid="{E9C8F8D0-28EA-4E79-A36B-FC84F2EC24D4}"/>
+    <hyperlink ref="J96" r:id="rId93" xr:uid="{0638EDD1-19F1-41CD-87A8-0DA422C48BF4}"/>
+    <hyperlink ref="J97" r:id="rId94" xr:uid="{0C5BCAE7-5CF6-455B-9E7D-7F5AE284C994}"/>
+    <hyperlink ref="J98" r:id="rId95" xr:uid="{A6FB413E-3A65-4419-A473-9A90F70C3908}"/>
+    <hyperlink ref="J99" r:id="rId96" xr:uid="{408B3818-6BDC-44A8-92CB-4269E62A6E9E}"/>
+    <hyperlink ref="J100" r:id="rId97" xr:uid="{0BA976A6-4FF7-4A97-924A-86A43213B1B1}"/>
+    <hyperlink ref="J101" r:id="rId98" xr:uid="{0F5FF45E-4D87-48A9-93F0-BB2D6CA38C5B}"/>
+    <hyperlink ref="J102" r:id="rId99" xr:uid="{5834C298-8019-4B29-BE83-9BA12798F73A}"/>
+    <hyperlink ref="J103" r:id="rId100" xr:uid="{969CA51B-DD51-41C5-9646-B1EF884A9CA8}"/>
+    <hyperlink ref="J104" r:id="rId101" xr:uid="{8A02AC2F-9A2F-4190-A1BA-16BCB45E71D0}"/>
+    <hyperlink ref="J105" r:id="rId102" xr:uid="{74572B24-0ECE-40C4-B90B-356B60184FAF}"/>
+    <hyperlink ref="J106" r:id="rId103" xr:uid="{B195CC58-ECBF-466D-820C-D4E1CADE0B66}"/>
+    <hyperlink ref="J107" r:id="rId104" xr:uid="{0AD6F3CD-979C-4B81-8F5E-4B9EC02BFD1A}"/>
+    <hyperlink ref="J108" r:id="rId105" xr:uid="{6A17FAB8-CC2F-482B-BEE9-C87EB7B4F7C5}"/>
+    <hyperlink ref="J109" r:id="rId106" xr:uid="{DA3FC75A-7798-4A8D-B1D4-25F2067BEE0E}"/>
+    <hyperlink ref="J110" r:id="rId107" xr:uid="{9BC25F2B-06B7-4766-BC63-CDD9748E3BC7}"/>
+    <hyperlink ref="J111" r:id="rId108" xr:uid="{84B94C4E-8559-42FB-A223-15EFD96B10BA}"/>
+    <hyperlink ref="J112" r:id="rId109" xr:uid="{48A28FF8-B2CF-490D-989B-5BE1B1E52E80}"/>
+    <hyperlink ref="J113" r:id="rId110" xr:uid="{C4E5A7B1-3325-473D-817B-B2EC4AB8CD33}"/>
+    <hyperlink ref="J114" r:id="rId111" xr:uid="{4B3E086E-A827-4FBC-8EA2-D7D2418B46F5}"/>
+    <hyperlink ref="J115" r:id="rId112" xr:uid="{8D90A994-CF08-4F9A-AE5A-C492D43143D7}"/>
+    <hyperlink ref="J116" r:id="rId113" xr:uid="{DFF8A3DB-1C12-4401-8A96-651BE21F3E54}"/>
+    <hyperlink ref="J117" r:id="rId114" xr:uid="{677DF7EF-B2BD-439A-B2F6-33A27DBEBF0F}"/>
+    <hyperlink ref="J118" r:id="rId115" xr:uid="{BC0A8B31-7A0D-4CF6-972C-C328A9E4A12A}"/>
+    <hyperlink ref="J119" r:id="rId116" xr:uid="{D78B2AFE-0648-4BCC-A2AA-09A72A6CE247}"/>
+    <hyperlink ref="J120" r:id="rId117" xr:uid="{BAF4D477-1270-4FAE-A3B4-76B0ED25B53D}"/>
+    <hyperlink ref="J121" r:id="rId118" xr:uid="{7F0AC8EC-BFE7-43DC-9789-D92EE49D0FCC}"/>
+    <hyperlink ref="J122" r:id="rId119" xr:uid="{90D2E089-A896-4679-BCAE-0EC4D8D5B0FE}"/>
+    <hyperlink ref="J123" r:id="rId120" xr:uid="{94A4B44A-015E-4C67-BC61-F5D44595089C}"/>
+    <hyperlink ref="J124" r:id="rId121" xr:uid="{6A24BB3B-C22F-4CB3-9CB8-1FAC3FAF2215}"/>
+    <hyperlink ref="J125" r:id="rId122" xr:uid="{73BF0DC7-4417-4804-BBEB-63FA039317FB}"/>
+    <hyperlink ref="J126" r:id="rId123" xr:uid="{2AB2A76F-3DAB-4EA7-A62D-49741E690C24}"/>
+    <hyperlink ref="J127" r:id="rId124" xr:uid="{41E64FFC-595F-487A-BFD7-D2906B5383D6}"/>
+    <hyperlink ref="J128" r:id="rId125" xr:uid="{89B6F110-3B93-42FB-A508-C8E3D6ECF4E8}"/>
+    <hyperlink ref="J129" r:id="rId126" xr:uid="{D006DF8F-F19B-4148-895A-B8134B1A4D58}"/>
+    <hyperlink ref="J130" r:id="rId127" xr:uid="{9834E268-A1EE-4236-98AA-8CA8EE6B9812}"/>
+    <hyperlink ref="J131" r:id="rId128" xr:uid="{3A04F7CF-8D1E-48F6-85AD-E0A3BF385ADB}"/>
+    <hyperlink ref="J132" r:id="rId129" xr:uid="{B640C618-288E-42D8-A808-2882CD4F1CA3}"/>
+    <hyperlink ref="J133" r:id="rId130" xr:uid="{3649F4F6-BC66-44A2-B7FD-BAEF0BC33A68}"/>
+    <hyperlink ref="J134" r:id="rId131" xr:uid="{69BC7537-9B47-444E-A1CF-5C70B79ABE68}"/>
+    <hyperlink ref="J135" r:id="rId132" xr:uid="{89530617-799B-4C54-818C-520ED48B8162}"/>
+    <hyperlink ref="J136" r:id="rId133" xr:uid="{40ACF91B-8269-436E-A45E-3CA4ADCB95AA}"/>
+    <hyperlink ref="J137" r:id="rId134" xr:uid="{3EA75E16-2D46-4AD6-812C-A62C3F7BA41F}"/>
+    <hyperlink ref="J138" r:id="rId135" xr:uid="{97D6CAE6-378F-4D62-AB4A-75969A78EB07}"/>
+    <hyperlink ref="J139" r:id="rId136" xr:uid="{8A0D6B74-01D2-4C4C-8456-1F6A0F9B96A7}"/>
+    <hyperlink ref="J140" r:id="rId137" xr:uid="{2425EE36-11E7-4150-9FC9-4131FF5CFBC9}"/>
+    <hyperlink ref="J141" r:id="rId138" xr:uid="{072E2DB1-FE32-4802-ABE0-E8977F2825B5}"/>
+    <hyperlink ref="J142" r:id="rId139" xr:uid="{8F01086F-6054-4173-9080-FC612AA52E81}"/>
+    <hyperlink ref="J143" r:id="rId140" xr:uid="{9C579E0B-85E1-4C2E-811B-61F7EAB31A68}"/>
+    <hyperlink ref="J144" r:id="rId141" xr:uid="{DCA39AE2-6E80-4899-ADD3-F5ED4F4E020A}"/>
+    <hyperlink ref="J145" r:id="rId142" xr:uid="{A2B83C46-7CEE-4DD1-8507-FA25FA052AFB}"/>
+    <hyperlink ref="J146" r:id="rId143" xr:uid="{64F1D5E6-2B45-4BEF-B4E3-93442056BA5D}"/>
+    <hyperlink ref="J147" r:id="rId144" xr:uid="{B5FAA691-BA17-4C14-852B-461C6116A19C}"/>
+    <hyperlink ref="J148" r:id="rId145" xr:uid="{92739F7F-6D78-4254-915F-902DA329511C}"/>
+    <hyperlink ref="J149" r:id="rId146" xr:uid="{52AB4425-3E54-4800-AC0C-948C35A3EDEA}"/>
+    <hyperlink ref="J150" r:id="rId147" xr:uid="{6F271EE8-7484-41BB-9971-45097912C0E9}"/>
+    <hyperlink ref="J151" r:id="rId148" xr:uid="{DEF7EF7F-736E-4AD4-8888-652C284A7F1A}"/>
+    <hyperlink ref="J152" r:id="rId149" xr:uid="{B18805DE-E384-4E30-9A91-82CC4AA4E3DA}"/>
+    <hyperlink ref="J153" r:id="rId150" xr:uid="{C304196D-39F0-4DE7-AF42-24A2D7D04557}"/>
+    <hyperlink ref="J154" r:id="rId151" xr:uid="{2AB607E0-39CF-4E0F-8EAA-4FA2395E89D5}"/>
+    <hyperlink ref="J155" r:id="rId152" xr:uid="{EED73FD5-C6BF-408B-84F1-FB3D8157ECEB}"/>
+    <hyperlink ref="J156" r:id="rId153" xr:uid="{1B60140F-1C96-4B52-80D5-E4BC66642B22}"/>
+    <hyperlink ref="J157" r:id="rId154" xr:uid="{BAC5506F-D81C-4B8A-986E-C1D699629F19}"/>
+    <hyperlink ref="J158" r:id="rId155" xr:uid="{5F0D52B4-97A6-4C9A-9D1B-53DB30D26748}"/>
+    <hyperlink ref="J159" r:id="rId156" xr:uid="{E021CD34-A58E-4FA7-A0CA-3747776D059B}"/>
+    <hyperlink ref="J160" r:id="rId157" xr:uid="{6DE50A32-F0F2-4978-B632-0E71ED7FF18E}"/>
+    <hyperlink ref="J161" r:id="rId158" xr:uid="{353DCACB-58DF-4F6D-A059-46C0E678E523}"/>
+    <hyperlink ref="J162" r:id="rId159" xr:uid="{D60D4CA6-A3BE-40E8-9163-6E60944D1ADB}"/>
+    <hyperlink ref="J163" r:id="rId160" xr:uid="{4FA3EDCD-7CB4-42BE-BCF8-9B5030D312D9}"/>
+    <hyperlink ref="J164" r:id="rId161" xr:uid="{30E38899-105F-4CE3-B221-0A60FA355B3D}"/>
+    <hyperlink ref="J165" r:id="rId162" xr:uid="{F3B5331C-7EFB-42E2-A016-7CEE28CDBDA5}"/>
+    <hyperlink ref="J166" r:id="rId163" xr:uid="{819DA39A-828E-4E4A-A753-80F968E6F9A8}"/>
+    <hyperlink ref="J167" r:id="rId164" xr:uid="{86B1DEE5-0BAB-4B44-9467-18D2212D2386}"/>
+    <hyperlink ref="J168" r:id="rId165" xr:uid="{7CCA2920-89FC-469D-B317-641CB25ADA1F}"/>
+    <hyperlink ref="J169" r:id="rId166" xr:uid="{ECE07BA4-7B37-4CFF-A705-EF696C2767F5}"/>
+    <hyperlink ref="J170" r:id="rId167" xr:uid="{88E87D55-B26D-4C60-BADA-E0FD6EBE7C5B}"/>
+    <hyperlink ref="J171" r:id="rId168" xr:uid="{FEF4766A-27CD-4D7C-96A3-1ACA8879E9EE}"/>
+    <hyperlink ref="J172" r:id="rId169" xr:uid="{DD250971-4508-40C4-8CDD-AB031590FDE3}"/>
+    <hyperlink ref="J173" r:id="rId170" xr:uid="{26549AB1-A9A3-47CE-9593-DEA00AB0830F}"/>
+    <hyperlink ref="J174" r:id="rId171" xr:uid="{DD6ACDA5-4ADB-41F0-9D2C-D15BDAF43CEF}"/>
+    <hyperlink ref="J175" r:id="rId172" xr:uid="{3185354A-E130-41F0-BFCC-135954182100}"/>
+    <hyperlink ref="J176" r:id="rId173" xr:uid="{B284A462-1F8F-4698-ADB0-01FEA790A208}"/>
+    <hyperlink ref="J177" r:id="rId174" xr:uid="{240E6F46-EDD5-4D82-B7F7-52C38E651D2C}"/>
+    <hyperlink ref="J178" r:id="rId175" xr:uid="{DA1504FE-5064-499B-9EBB-780343979FE1}"/>
+    <hyperlink ref="J179" r:id="rId176" xr:uid="{89901EE1-857D-4F83-8BB7-468DFFCC1C86}"/>
+    <hyperlink ref="J180" r:id="rId177" xr:uid="{A152C677-CD3C-463F-BE6F-7033535D9989}"/>
+    <hyperlink ref="J181" r:id="rId178" xr:uid="{C1147F90-CA35-4F7E-A0E1-BE87DFA4CDD1}"/>
+    <hyperlink ref="J182" r:id="rId179" xr:uid="{81715FD4-774B-4847-A881-F8498274D237}"/>
+    <hyperlink ref="J183" r:id="rId180" xr:uid="{F1E1F41F-0C99-452F-9147-1788D57EB6A2}"/>
+    <hyperlink ref="J184" r:id="rId181" xr:uid="{CFC261B3-8E8F-4F90-933E-3B2513E5C8B4}"/>
+    <hyperlink ref="J185" r:id="rId182" xr:uid="{8028DB38-F03A-442D-86CD-F534A0813CC1}"/>
+    <hyperlink ref="J186" r:id="rId183" xr:uid="{4E061E09-9C9F-492C-A919-7361F702A041}"/>
+    <hyperlink ref="J187" r:id="rId184" xr:uid="{EDD40411-123F-4AC2-A0C6-8D48B0D05FF8}"/>
+    <hyperlink ref="J188" r:id="rId185" xr:uid="{5AD67C70-0BF5-4BC5-B3E9-D5DF45C7AFE2}"/>
+    <hyperlink ref="J189" r:id="rId186" xr:uid="{A18E343A-231A-42B5-AC77-6C0C824BDF22}"/>
+    <hyperlink ref="J190" r:id="rId187" xr:uid="{304D1D6D-DC39-4CC0-8123-DDACF57988E0}"/>
+    <hyperlink ref="J191" r:id="rId188" xr:uid="{398F2FE8-1EE7-4884-9100-53D83696E429}"/>
+    <hyperlink ref="J192" r:id="rId189" xr:uid="{29F6496E-07A5-4C66-9FD7-0EFC66DC2784}"/>
+    <hyperlink ref="J193" r:id="rId190" xr:uid="{B9D78572-9F74-4492-B04D-7F94D0B94608}"/>
+    <hyperlink ref="J194" r:id="rId191" xr:uid="{DCA7A610-98C8-4921-953E-F70FF9306D45}"/>
+    <hyperlink ref="J195" r:id="rId192" xr:uid="{E2D6614E-647B-41F2-83AA-28F299F54680}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId193"/>
 </worksheet>
 </file>